--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1677,28 +1677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.1848500007999</v>
+        <v>151.5760512281559</v>
       </c>
       <c r="AB2" t="n">
-        <v>174.0199227705959</v>
+        <v>207.393040353701</v>
       </c>
       <c r="AC2" t="n">
-        <v>157.4117055799143</v>
+        <v>187.5997396603632</v>
       </c>
       <c r="AD2" t="n">
-        <v>127184.8500007999</v>
+        <v>151576.0512281559</v>
       </c>
       <c r="AE2" t="n">
-        <v>174019.9227705958</v>
+        <v>207393.040353701</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.192695104996614e-06</v>
+        <v>7.757583652319843e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.624674479166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>157411.7055799143</v>
+        <v>187599.7396603631</v>
       </c>
     </row>
     <row r="3">
@@ -1783,28 +1783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>73.65689089727231</v>
+        <v>85.93783236552194</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.7806076382959</v>
+        <v>117.5839335520461</v>
       </c>
       <c r="AC3" t="n">
-        <v>91.16224789179334</v>
+        <v>106.3618879639566</v>
       </c>
       <c r="AD3" t="n">
-        <v>73656.8908972723</v>
+        <v>85937.83236552194</v>
       </c>
       <c r="AE3" t="n">
-        <v>100780.6076382959</v>
+        <v>117583.9335520461</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.024256586195533e-06</v>
+        <v>1.114645192176175e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.522786458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>91162.24789179335</v>
+        <v>106361.8879639566</v>
       </c>
     </row>
     <row r="4">
@@ -1889,28 +1889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>73.88018193621477</v>
+        <v>86.1611234044644</v>
       </c>
       <c r="AB4" t="n">
-        <v>101.0861242886823</v>
+        <v>117.8894502024324</v>
       </c>
       <c r="AC4" t="n">
-        <v>91.43860646186222</v>
+        <v>106.6382465340255</v>
       </c>
       <c r="AD4" t="n">
-        <v>73880.18193621477</v>
+        <v>86161.12340446441</v>
       </c>
       <c r="AE4" t="n">
-        <v>101086.1242886823</v>
+        <v>117889.4502024324</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.020988775019412e-06</v>
+        <v>1.114040561552581e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.5244140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>91438.60646186222</v>
+        <v>106638.2465340255</v>
       </c>
     </row>
   </sheetData>
@@ -2186,28 +2186,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.05775247285916</v>
+        <v>106.4998358837217</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.6432811827495</v>
+        <v>145.717773897206</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.7973259260441</v>
+        <v>131.8106740726763</v>
       </c>
       <c r="AD2" t="n">
-        <v>83057.75247285917</v>
+        <v>106499.8358837217</v>
       </c>
       <c r="AE2" t="n">
-        <v>113643.2811827495</v>
+        <v>145717.773897206</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.32139770849172e-06</v>
+        <v>1.014340529645761e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.9541015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>102797.3259260441</v>
+        <v>131810.6740726763</v>
       </c>
     </row>
     <row r="3">
@@ -2292,28 +2292,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>70.40160835183055</v>
+        <v>82.25066133911925</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.32658644669453</v>
+        <v>112.5389834872192</v>
       </c>
       <c r="AC3" t="n">
-        <v>87.13331223145899</v>
+        <v>101.7984208526833</v>
       </c>
       <c r="AD3" t="n">
-        <v>70401.60835183055</v>
+        <v>82250.66133911925</v>
       </c>
       <c r="AE3" t="n">
-        <v>96326.58644669453</v>
+        <v>112538.9834872192</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.13271889464891e-06</v>
+        <v>1.168990869041793e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.5634765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>87133.31223145899</v>
+        <v>101798.4208526833</v>
       </c>
     </row>
   </sheetData>
@@ -2589,28 +2589,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.05420687440427</v>
+        <v>87.51773887414608</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.4289652372085</v>
+        <v>119.7456313377005</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.36697276547808</v>
+        <v>108.3172763469107</v>
       </c>
       <c r="AD2" t="n">
-        <v>77054.20687440428</v>
+        <v>87517.73887414607</v>
       </c>
       <c r="AE2" t="n">
-        <v>105428.9652372085</v>
+        <v>119745.6313377005</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.833793264917766e-06</v>
+        <v>1.24244529334595e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.006184895833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>95366.97276547809</v>
+        <v>108317.2763469107</v>
       </c>
     </row>
   </sheetData>
@@ -2886,28 +2886,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.95683640642307</v>
+        <v>88.81508764425185</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.61329749837786</v>
+        <v>121.5207211599466</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.86985296522555</v>
+        <v>109.9229540878765</v>
       </c>
       <c r="AD2" t="n">
-        <v>66956.83640642307</v>
+        <v>88815.08764425185</v>
       </c>
       <c r="AE2" t="n">
-        <v>91613.29749837785</v>
+        <v>121520.7211599466</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.072715667909091e-06</v>
+        <v>1.232971233593772e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.763671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>82869.85296522555</v>
+        <v>109922.9540878765</v>
       </c>
     </row>
   </sheetData>
@@ -3183,28 +3183,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.29566926761606</v>
+        <v>98.21805366101057</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.1275888530554</v>
+        <v>134.386274093653</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.90348212746228</v>
+        <v>121.5606367065109</v>
       </c>
       <c r="AD2" t="n">
-        <v>78295.66926761606</v>
+        <v>98218.05366101058</v>
       </c>
       <c r="AE2" t="n">
-        <v>107127.5888530554</v>
+        <v>134386.274093653</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.435299864184594e-06</v>
+        <v>1.210335115280502e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.351236979166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>96903.48212746228</v>
+        <v>121560.6367065109</v>
       </c>
     </row>
   </sheetData>
@@ -3480,28 +3480,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.2985503751894</v>
+        <v>114.1758702113321</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.9693897167996</v>
+        <v>156.2204627069717</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.6109076105381</v>
+        <v>141.3110010030576</v>
       </c>
       <c r="AD2" t="n">
-        <v>102298.5503751894</v>
+        <v>114175.8702113321</v>
       </c>
       <c r="AE2" t="n">
-        <v>139969.3897167995</v>
+        <v>156220.4627069717</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.997257439809829e-06</v>
+        <v>9.448632809947553e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.116861979166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>126610.9076105381</v>
+        <v>141311.0010030576</v>
       </c>
     </row>
     <row r="3">
@@ -3586,28 +3586,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>70.76126425154311</v>
+        <v>82.72383543370641</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.81868351557947</v>
+        <v>113.1864011584008</v>
       </c>
       <c r="AC3" t="n">
-        <v>87.57844424675226</v>
+        <v>102.384049889984</v>
       </c>
       <c r="AD3" t="n">
-        <v>70761.26425154311</v>
+        <v>82723.83543370641</v>
       </c>
       <c r="AE3" t="n">
-        <v>96818.68351557947</v>
+        <v>113186.4011584008</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.143578982469239e-06</v>
+        <v>1.161605593536764e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.535807291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>87578.44424675226</v>
+        <v>102384.049889984</v>
       </c>
     </row>
   </sheetData>
@@ -3883,28 +3883,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.53132535097195</v>
+        <v>100.1305033205692</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.1865121364868</v>
+        <v>137.0029720891841</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.67046606594978</v>
+        <v>123.9276007179081</v>
       </c>
       <c r="AD2" t="n">
-        <v>80531.32535097195</v>
+        <v>100130.5033205692</v>
       </c>
       <c r="AE2" t="n">
-        <v>110186.5121364868</v>
+        <v>137002.9720891841</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.08092745420491e-06</v>
+        <v>1.164836533144702e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.670247395833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>99670.46606594977</v>
+        <v>123927.6007179081</v>
       </c>
     </row>
   </sheetData>
@@ -4180,28 +4180,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.89829284372593</v>
+        <v>91.603533322468</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.26968384690734</v>
+        <v>125.3359955544212</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.2727175289139</v>
+        <v>113.3741040489148</v>
       </c>
       <c r="AD2" t="n">
-        <v>68898.29284372593</v>
+        <v>91603.53332246799</v>
       </c>
       <c r="AE2" t="n">
-        <v>94269.68384690734</v>
+        <v>125335.9955544212</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.107433470085824e-06</v>
+        <v>1.197048519703964e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.6513671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>85272.7175289139</v>
+        <v>113374.1040489148</v>
       </c>
     </row>
     <row r="3">
@@ -4286,28 +4286,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>68.39153660762481</v>
+        <v>79.87216812885327</v>
       </c>
       <c r="AB3" t="n">
-        <v>93.57631760816683</v>
+        <v>109.2846241452202</v>
       </c>
       <c r="AC3" t="n">
-        <v>84.64552519085295</v>
+        <v>98.85465299876162</v>
       </c>
       <c r="AD3" t="n">
-        <v>68391.53660762482</v>
+        <v>79872.16812885327</v>
       </c>
       <c r="AE3" t="n">
-        <v>93576.31760816684</v>
+        <v>109284.6241452202</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.157687717106392e-06</v>
+        <v>1.206898282668957e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.630208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>84645.52519085295</v>
+        <v>98854.65299876162</v>
       </c>
     </row>
   </sheetData>
@@ -4583,28 +4583,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.22167782270289</v>
+        <v>99.4280915001401</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.2898622600817</v>
+        <v>136.041901248251</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.33658417774676</v>
+        <v>123.0582531291619</v>
       </c>
       <c r="AD2" t="n">
-        <v>76221.67782270288</v>
+        <v>99428.0915001401</v>
       </c>
       <c r="AE2" t="n">
-        <v>104289.8622600817</v>
+        <v>136041.901248251</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.682880428585479e-06</v>
+        <v>1.09264917103476e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.79296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>94336.58417774676</v>
+        <v>123058.2531291619</v>
       </c>
     </row>
     <row r="3">
@@ -4689,28 +4689,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.64185979485232</v>
+        <v>81.37307791542838</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.28706495329668</v>
+        <v>111.3382351306778</v>
       </c>
       <c r="AC3" t="n">
-        <v>86.1930012104131</v>
+        <v>100.7122702340289</v>
       </c>
       <c r="AD3" t="n">
-        <v>69641.85979485232</v>
+        <v>81373.07791542838</v>
       </c>
       <c r="AE3" t="n">
-        <v>95287.06495329668</v>
+        <v>111338.2351306778</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.146605967641696e-06</v>
+        <v>1.181809823313967e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.581380208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>86193.0012104131</v>
+        <v>100712.2702340289</v>
       </c>
     </row>
   </sheetData>
@@ -4986,28 +4986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.0104453766116</v>
+        <v>143.0255640547582</v>
       </c>
       <c r="AB2" t="n">
-        <v>162.835341734507</v>
+        <v>195.693886582193</v>
       </c>
       <c r="AC2" t="n">
-        <v>147.2945652602481</v>
+        <v>177.0171367049387</v>
       </c>
       <c r="AD2" t="n">
-        <v>119010.4453766116</v>
+        <v>143025.5640547582</v>
       </c>
       <c r="AE2" t="n">
-        <v>162835.341734507</v>
+        <v>195693.886582193</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.418389191122736e-06</v>
+        <v>8.231123944040628e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.466796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>147294.5652602481</v>
+        <v>177017.1367049387</v>
       </c>
     </row>
     <row r="3">
@@ -5092,28 +5092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.52432531174598</v>
+        <v>84.70252160568698</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.23098143891232</v>
+        <v>115.8937268723763</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.76051584196441</v>
+        <v>104.832992237574</v>
       </c>
       <c r="AD3" t="n">
-        <v>72524.32531174598</v>
+        <v>84702.52160568698</v>
       </c>
       <c r="AE3" t="n">
-        <v>99230.98143891232</v>
+        <v>115893.7268723763</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.074202845135974e-06</v>
+        <v>1.131577919392243e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.521158854166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>89760.5158419644</v>
+        <v>104832.992237574</v>
       </c>
     </row>
   </sheetData>
@@ -5389,28 +5389,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.93361503968467</v>
+        <v>89.08924116333085</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.58152499995197</v>
+        <v>121.89583009955</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.84111278945645</v>
+        <v>110.2622631567529</v>
       </c>
       <c r="AD2" t="n">
-        <v>66933.61503968466</v>
+        <v>89089.24116333085</v>
       </c>
       <c r="AE2" t="n">
-        <v>91581.52499995197</v>
+        <v>121895.83009955</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.143327114597344e-06</v>
+        <v>1.231428295189121e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.696940104166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>82841.11278945644</v>
+        <v>110262.2631567529</v>
       </c>
     </row>
     <row r="3">
@@ -5495,28 +5495,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>67.17555945180686</v>
+        <v>89.33118557545303</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.91256401845155</v>
+        <v>122.2268691180495</v>
       </c>
       <c r="AC3" t="n">
-        <v>83.1405579086467</v>
+        <v>110.5617082759431</v>
       </c>
       <c r="AD3" t="n">
-        <v>67175.55945180687</v>
+        <v>89331.18557545304</v>
       </c>
       <c r="AE3" t="n">
-        <v>91912.56401845155</v>
+        <v>122226.8691180496</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.141901701431439e-06</v>
+        <v>1.231142571497042e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.698567708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>83140.5579086467</v>
+        <v>110561.7082759432</v>
       </c>
     </row>
   </sheetData>
@@ -5792,28 +5792,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.26679146286871</v>
+        <v>87.47194862204088</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.66914756397286</v>
+        <v>119.6829790946469</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.01581137543711</v>
+        <v>108.2606035460012</v>
       </c>
       <c r="AD2" t="n">
-        <v>66266.79146286871</v>
+        <v>87471.94862204089</v>
       </c>
       <c r="AE2" t="n">
-        <v>90669.14756397286</v>
+        <v>119682.9790946469</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.96012541991623e-06</v>
+        <v>1.24689551122932e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.8955078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>82015.81137543712</v>
+        <v>108260.6035460012</v>
       </c>
     </row>
   </sheetData>
@@ -9390,28 +9390,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.22429705089573</v>
+        <v>87.48977176234062</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.661690120533</v>
+        <v>119.7073655015064</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.57748671256958</v>
+        <v>108.2826625484166</v>
       </c>
       <c r="AD2" t="n">
-        <v>77224.29705089572</v>
+        <v>87489.77176234062</v>
       </c>
       <c r="AE2" t="n">
-        <v>105661.690120533</v>
+        <v>119707.3655015064</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.681097637042432e-06</v>
+        <v>1.234988687740466e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.142903645833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>95577.48671256957</v>
+        <v>108282.6625484166</v>
       </c>
     </row>
   </sheetData>
@@ -9687,28 +9687,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.91081413508375</v>
+        <v>113.8503174711441</v>
       </c>
       <c r="AB2" t="n">
-        <v>129.8611630691717</v>
+        <v>155.7750270854733</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.4673959271715</v>
+        <v>140.9080771321021</v>
       </c>
       <c r="AD2" t="n">
-        <v>94910.81413508375</v>
+        <v>113850.3174711441</v>
       </c>
       <c r="AE2" t="n">
-        <v>129861.1630691717</v>
+        <v>155775.0270854733</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.530830440390853e-06</v>
+        <v>1.077670236962073e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.230143229166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>117467.3959271715</v>
+        <v>140908.0771321021</v>
       </c>
     </row>
   </sheetData>
@@ -9984,28 +9984,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.39473937391662</v>
+        <v>94.35591112165186</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.6854321249605</v>
+        <v>129.1019202856014</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.36247158534354</v>
+        <v>116.7806142092609</v>
       </c>
       <c r="AD2" t="n">
-        <v>71394.73937391661</v>
+        <v>94355.91112165185</v>
       </c>
       <c r="AE2" t="n">
-        <v>97685.4321249605</v>
+        <v>129101.9202856013</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.966797507922818e-06</v>
+        <v>1.157903713778597e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.685546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>88362.47158534355</v>
+        <v>116780.6142092609</v>
       </c>
     </row>
     <row r="3">
@@ -10090,28 +10090,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>68.63629563770702</v>
+        <v>80.24489279343209</v>
       </c>
       <c r="AB3" t="n">
-        <v>93.91120771113148</v>
+        <v>109.7946024747484</v>
       </c>
       <c r="AC3" t="n">
-        <v>84.94845385241197</v>
+        <v>99.31595971227884</v>
       </c>
       <c r="AD3" t="n">
-        <v>68636.29563770702</v>
+        <v>80244.89279343208</v>
       </c>
       <c r="AE3" t="n">
-        <v>93911.20771113149</v>
+        <v>109794.6024747484</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.186794300065208e-06</v>
+        <v>1.200595811558488e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.591145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>84948.45385241197</v>
+        <v>99315.95971227884</v>
       </c>
     </row>
   </sheetData>
@@ -10387,28 +10387,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.3756597991638</v>
+        <v>122.3625800118392</v>
       </c>
       <c r="AB2" t="n">
-        <v>151.0208471675946</v>
+        <v>167.4218802281659</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.6076294730508</v>
+        <v>151.4433709573209</v>
       </c>
       <c r="AD2" t="n">
-        <v>110375.6597991638</v>
+        <v>122362.5800118392</v>
       </c>
       <c r="AE2" t="n">
-        <v>151020.8471675946</v>
+        <v>167421.8802281659</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.694656060226943e-06</v>
+        <v>8.809016150384439e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.289388020833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>136607.6294730508</v>
+        <v>151443.3709573209</v>
       </c>
     </row>
     <row r="3">
@@ -10493,28 +10493,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.85997779489509</v>
+        <v>83.93214935359103</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.32199185741348</v>
+        <v>114.8396695706341</v>
       </c>
       <c r="AC3" t="n">
-        <v>88.93827895034863</v>
+        <v>103.879532685331</v>
       </c>
       <c r="AD3" t="n">
-        <v>71859.97779489509</v>
+        <v>83932.14935359103</v>
       </c>
       <c r="AE3" t="n">
-        <v>98321.99185741348</v>
+        <v>114839.6695706341</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.088666763750831e-06</v>
+        <v>1.142472700196003e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.537434895833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>88938.27895034863</v>
+        <v>103879.532685331</v>
       </c>
     </row>
   </sheetData>
@@ -10790,28 +10790,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.5735296975095</v>
+        <v>141.8835163866171</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.7645579594576</v>
+        <v>194.1312865790559</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.803168568289</v>
+        <v>175.6036690529777</v>
       </c>
       <c r="AD2" t="n">
-        <v>114573.5296975095</v>
+        <v>141883.5163866171</v>
       </c>
       <c r="AE2" t="n">
-        <v>156764.5579594577</v>
+        <v>194131.2865790559</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.657312143114914e-06</v>
+        <v>9.146660118224704e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.426432291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>141803.168568289</v>
+        <v>175603.6690529777</v>
       </c>
     </row>
   </sheetData>
@@ -11087,28 +11087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.15344842392939</v>
+        <v>87.69600151804333</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.51406661775418</v>
+        <v>119.9895381514734</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.87553113706802</v>
+        <v>108.5379050367026</v>
       </c>
       <c r="AD2" t="n">
-        <v>66153.4484239294</v>
+        <v>87696.00151804333</v>
       </c>
       <c r="AE2" t="n">
-        <v>90514.06661775419</v>
+        <v>119989.5381514734</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.060641403441343e-06</v>
+        <v>1.248057858769889e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.805989583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>81875.53113706803</v>
+        <v>108537.9050367026</v>
       </c>
     </row>
   </sheetData>
@@ -11384,28 +11384,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.53381450641345</v>
+        <v>89.97108830938863</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.40274438926158</v>
+        <v>123.102412269136</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.58395615283925</v>
+        <v>111.3536908175227</v>
       </c>
       <c r="AD2" t="n">
-        <v>67533.81450641344</v>
+        <v>89971.08830938864</v>
       </c>
       <c r="AE2" t="n">
-        <v>92402.74438926158</v>
+        <v>123102.412269136</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.157493087854548e-06</v>
+        <v>1.219912747407001e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.659505208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>83583.95615283925</v>
+        <v>111353.6908175227</v>
       </c>
     </row>
     <row r="3">
@@ -11490,28 +11490,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>67.88575152187339</v>
+        <v>90.32302532484857</v>
       </c>
       <c r="AB3" t="n">
-        <v>92.88428014017894</v>
+        <v>123.5839480200534</v>
       </c>
       <c r="AC3" t="n">
-        <v>84.0195348075289</v>
+        <v>111.7892694722124</v>
       </c>
       <c r="AD3" t="n">
-        <v>67885.75152187339</v>
+        <v>90323.02532484857</v>
       </c>
       <c r="AE3" t="n">
-        <v>92884.28014017895</v>
+        <v>123583.9480200534</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.143607183254032e-06</v>
+        <v>1.217161694049774e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.666015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>84019.53480752889</v>
+        <v>111789.2694722124</v>
       </c>
     </row>
   </sheetData>
